--- a/ICD/ICD list.xlsx
+++ b/ICD/ICD list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\banuj\SynologyDrive\Master\1. Semester\Digitalization of Business Processes\00 - Group work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\banuj\Documents\GitHub\Team-Fete-des-Vignerons\ICD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077F3B76-FBE3-4AA2-A88C-0C381EA1438D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE943747-F94B-4759-938E-58AB9908FE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="18000" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICD list" sheetId="1" r:id="rId1"/>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="114" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/ICD/ICD list.xlsx
+++ b/ICD/ICD list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\banuj\Documents\GitHub\Team-Fete-des-Vignerons\ICD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\banuj\SynologyDrive\Master\1. Semester\Digitalization of Business Processes\00 - Group work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE943747-F94B-4759-938E-58AB9908FE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC003AE-1977-4C7C-9148-82E63CF594A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="18000" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICD list" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Code</t>
   </si>
@@ -181,6 +181,57 @@
   </si>
   <si>
     <t>Enteritis due to Campylobacter</t>
+  </si>
+  <si>
+    <t>Code for Camunda Process</t>
+  </si>
+  <si>
+    <t>ICD-T00.0</t>
+  </si>
+  <si>
+    <t>ICD-T00.2</t>
+  </si>
+  <si>
+    <t>ICD-T00.9</t>
+  </si>
+  <si>
+    <t>ICD-T14.1</t>
+  </si>
+  <si>
+    <t>ICD-S10.7</t>
+  </si>
+  <si>
+    <t>ICD-J10.1</t>
+  </si>
+  <si>
+    <t>ICD-A05.3</t>
+  </si>
+  <si>
+    <t>ICD-A05.4</t>
+  </si>
+  <si>
+    <t>ICD-A07.9</t>
+  </si>
+  <si>
+    <t>ICD-A06.5</t>
+  </si>
+  <si>
+    <t>ICD-A06.3</t>
+  </si>
+  <si>
+    <t>ICD-A04.5</t>
+  </si>
+  <si>
+    <t>ICD-S01.2</t>
+  </si>
+  <si>
+    <t>ICD-S01.7</t>
+  </si>
+  <si>
+    <t>ICD-S01.8</t>
+  </si>
+  <si>
+    <t>ICD-S01.4</t>
   </si>
 </sst>
 </file>
@@ -518,220 +569,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="114" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="85.08984375" customWidth="1"/>
-    <col min="3" max="3" width="65.08984375" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="85.109375" customWidth="1"/>
+    <col min="4" max="4" width="65.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
       <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
